--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_15-00.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_15-00.xlsx
@@ -179,6 +179,12 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t xml:space="preserve">بلاستر 2سم </t>
   </si>
   <si>
-    <t>3:0</t>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>سويت كوكو</t>
@@ -1832,11 +1838,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1852,13 +1858,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1870,7 +1876,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1878,13 +1884,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -1896,7 +1902,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1910,7 +1916,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -1922,7 +1928,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1936,11 +1942,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1948,7 +1954,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1956,17 +1962,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1974,7 +1980,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1982,17 +1988,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2000,7 +2006,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2008,17 +2014,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2034,17 +2040,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>61.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2052,7 +2058,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2060,13 +2066,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23.5</v>
+        <v>61.109999999999999</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2092,7 +2098,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2112,17 +2118,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2130,7 +2136,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2138,17 +2144,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2156,7 +2162,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2164,17 +2170,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2182,7 +2188,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2190,51 +2196,103 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="26.25" customHeight="1">
-      <c r="K57" s="11">
-        <v>4661.46</v>
-      </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="12">
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
+        <v>77</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
         <v>78</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c t="s" r="F58" s="13">
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>25</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="A58" s="6">
+        <v>55</v>
+      </c>
+      <c t="s" r="B58" s="7">
         <v>79</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="14"/>
-      <c t="s" r="I58" s="15">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c t="s" r="H58" s="8">
+        <v>57</v>
+      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="K59" s="11">
+        <v>4682.46</v>
+      </c>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="12">
         <v>80</v>
       </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c t="s" r="F60" s="13">
+        <v>81</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c t="s" r="I60" s="15">
+        <v>82</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="170">
+  <mergeCells count="176">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2401,10 +2459,16 @@
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:N60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
